--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Serping1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Serping1-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.502027</v>
+        <v>12.164654</v>
       </c>
       <c r="H2">
-        <v>46.506081</v>
+        <v>36.493962</v>
       </c>
       <c r="I2">
-        <v>0.01694194650975459</v>
+        <v>0.01645466237598477</v>
       </c>
       <c r="J2">
-        <v>0.01834969517818498</v>
+        <v>0.01673867469867156</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N2">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O2">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P2">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q2">
-        <v>61.18145724288267</v>
+        <v>35.36077987616866</v>
       </c>
       <c r="R2">
-        <v>550.633115185944</v>
+        <v>318.2470188855179</v>
       </c>
       <c r="S2">
-        <v>0.000136929688435835</v>
+        <v>9.08383871574496E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001526269573197969</v>
+        <v>9.414735956101657E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.502027</v>
+        <v>12.164654</v>
       </c>
       <c r="H3">
-        <v>46.506081</v>
+        <v>36.493962</v>
       </c>
       <c r="I3">
-        <v>0.01694194650975459</v>
+        <v>0.01645466237598477</v>
       </c>
       <c r="J3">
-        <v>0.01834969517818498</v>
+        <v>0.01673867469867156</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P3">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q3">
-        <v>2880.31915932943</v>
+        <v>2260.22609706546</v>
       </c>
       <c r="R3">
-        <v>25922.87243396487</v>
+        <v>20342.03487358914</v>
       </c>
       <c r="S3">
-        <v>0.006446417311000324</v>
+        <v>0.005806299917241799</v>
       </c>
       <c r="T3">
-        <v>0.007185418085959489</v>
+        <v>0.006017806162500036</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.502027</v>
+        <v>12.164654</v>
       </c>
       <c r="H4">
-        <v>46.506081</v>
+        <v>36.493962</v>
       </c>
       <c r="I4">
-        <v>0.01694194650975459</v>
+        <v>0.01645466237598477</v>
       </c>
       <c r="J4">
-        <v>0.01834969517818498</v>
+        <v>0.01673867469867156</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N4">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O4">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P4">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q4">
-        <v>1818.99892417979</v>
+        <v>1667.429909118801</v>
       </c>
       <c r="R4">
-        <v>16370.99031761811</v>
+        <v>15006.86918206921</v>
       </c>
       <c r="S4">
-        <v>0.004071085704354206</v>
+        <v>0.004283464453354021</v>
       </c>
       <c r="T4">
-        <v>0.004537784545788051</v>
+        <v>0.004439498329684752</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.502027</v>
+        <v>12.164654</v>
       </c>
       <c r="H5">
-        <v>46.506081</v>
+        <v>36.493962</v>
       </c>
       <c r="I5">
-        <v>0.01694194650975459</v>
+        <v>0.01645466237598477</v>
       </c>
       <c r="J5">
-        <v>0.01834969517818498</v>
+        <v>0.01673867469867156</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N5">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O5">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P5">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q5">
-        <v>642.691933529498</v>
+        <v>355.3628319156709</v>
       </c>
       <c r="R5">
-        <v>3856.151601176988</v>
+        <v>2132.176991494026</v>
       </c>
       <c r="S5">
-        <v>0.001438403238240229</v>
+        <v>0.0009128923802011181</v>
       </c>
       <c r="T5">
-        <v>0.001068865401698112</v>
+        <v>0.0006307642238688991</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.502027</v>
+        <v>12.164654</v>
       </c>
       <c r="H6">
-        <v>46.506081</v>
+        <v>36.493962</v>
       </c>
       <c r="I6">
-        <v>0.01694194650975459</v>
+        <v>0.01645466237598477</v>
       </c>
       <c r="J6">
-        <v>0.01834969517818498</v>
+        <v>0.01673867469867156</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N6">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O6">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P6">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q6">
-        <v>2166.627663103446</v>
+        <v>2086.948706549909</v>
       </c>
       <c r="R6">
-        <v>19499.64896793102</v>
+        <v>18782.53835894918</v>
       </c>
       <c r="S6">
-        <v>0.004849110567723995</v>
+        <v>0.005361167238030378</v>
       </c>
       <c r="T6">
-        <v>0.005405000187419535</v>
+        <v>0.005556458623056856</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>687.9602253333334</v>
+        <v>687.9602253333333</v>
       </c>
       <c r="H7">
         <v>2063.880676</v>
       </c>
       <c r="I7">
-        <v>0.751862020265869</v>
+        <v>0.9305774941043453</v>
       </c>
       <c r="J7">
-        <v>0.8143361142115235</v>
+        <v>0.9466395359440105</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N7">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O7">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P7">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q7">
-        <v>2715.155192997358</v>
+        <v>1999.794658489373</v>
       </c>
       <c r="R7">
-        <v>24436.39673697622</v>
+        <v>17998.15192640436</v>
       </c>
       <c r="S7">
-        <v>0.00607676527147967</v>
+        <v>0.005137277007447609</v>
       </c>
       <c r="T7">
-        <v>0.006773390083094847</v>
+        <v>0.005324412736945523</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>687.9602253333334</v>
+        <v>687.9602253333333</v>
       </c>
       <c r="H8">
         <v>2063.880676</v>
       </c>
       <c r="I8">
-        <v>0.751862020265869</v>
+        <v>0.9305774941043453</v>
       </c>
       <c r="J8">
-        <v>0.8143361142115235</v>
+        <v>0.9466395359440105</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P8">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q8">
         <v>127824.8978591117</v>
       </c>
       <c r="R8">
-        <v>1150424.080732006</v>
+        <v>1150424.080732005</v>
       </c>
       <c r="S8">
-        <v>0.286083794452718</v>
+        <v>0.328369668337347</v>
       </c>
       <c r="T8">
-        <v>0.3188797081524177</v>
+        <v>0.3403311991911851</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>687.9602253333334</v>
+        <v>687.9602253333333</v>
       </c>
       <c r="H9">
         <v>2063.880676</v>
       </c>
       <c r="I9">
-        <v>0.751862020265869</v>
+        <v>0.9305774941043453</v>
       </c>
       <c r="J9">
-        <v>0.8143361142115235</v>
+        <v>0.9466395359440105</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N9">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O9">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P9">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q9">
-        <v>80724.85680484363</v>
+        <v>94299.88358114498</v>
       </c>
       <c r="R9">
-        <v>726523.7112435927</v>
+        <v>848698.9522303049</v>
       </c>
       <c r="S9">
-        <v>0.1806696013701197</v>
+        <v>0.2422471835645104</v>
       </c>
       <c r="T9">
-        <v>0.2013811018800616</v>
+        <v>0.2510715283194145</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>687.9602253333334</v>
+        <v>687.9602253333333</v>
       </c>
       <c r="H10">
         <v>2063.880676</v>
       </c>
       <c r="I10">
-        <v>0.751862020265869</v>
+        <v>0.9305774941043453</v>
       </c>
       <c r="J10">
-        <v>0.8143361142115235</v>
+        <v>0.9466395359440105</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N10">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O10">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P10">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q10">
-        <v>28521.84991103868</v>
+        <v>20097.20078514329</v>
       </c>
       <c r="R10">
-        <v>171131.0994662321</v>
+        <v>120583.2047108597</v>
       </c>
       <c r="S10">
-        <v>0.06383450473282909</v>
+        <v>0.05162774441330137</v>
       </c>
       <c r="T10">
-        <v>0.04743488594125381</v>
+        <v>0.03567225977697787</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>687.9602253333334</v>
+        <v>687.9602253333333</v>
       </c>
       <c r="H11">
         <v>2063.880676</v>
       </c>
       <c r="I11">
-        <v>0.751862020265869</v>
+        <v>0.9305774941043453</v>
       </c>
       <c r="J11">
-        <v>0.8143361142115235</v>
+        <v>0.9466395359440105</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N11">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O11">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P11">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q11">
-        <v>96152.17773276233</v>
+        <v>118025.3628600685</v>
       </c>
       <c r="R11">
-        <v>865369.599594861</v>
+        <v>1062228.265740616</v>
       </c>
       <c r="S11">
-        <v>0.2151973544387226</v>
+        <v>0.3031956207817388</v>
       </c>
       <c r="T11">
-        <v>0.2398670281546957</v>
+        <v>0.3142401359194875</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.698403</v>
+        <v>0.9006163333333334</v>
       </c>
       <c r="H12">
-        <v>2.095209</v>
+        <v>2.701849</v>
       </c>
       <c r="I12">
-        <v>0.0007632747813077693</v>
+        <v>0.001218229280939463</v>
       </c>
       <c r="J12">
-        <v>0.0008266971900855241</v>
+        <v>0.001239256277406412</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N12">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O12">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P12">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q12">
-        <v>2.756369427224</v>
+        <v>2.617953286290111</v>
       </c>
       <c r="R12">
-        <v>24.807324845016</v>
+        <v>23.561579576611</v>
       </c>
       <c r="S12">
-        <v>6.169006491386738E-06</v>
+        <v>6.725266100265246E-06</v>
       </c>
       <c r="T12">
-        <v>6.87620560027525E-06</v>
+        <v>6.970247551706583E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.698403</v>
+        <v>0.9006163333333334</v>
       </c>
       <c r="H13">
-        <v>2.095209</v>
+        <v>2.701849</v>
       </c>
       <c r="I13">
-        <v>0.0007632747813077693</v>
+        <v>0.001218229280939463</v>
       </c>
       <c r="J13">
-        <v>0.0008266971900855241</v>
+        <v>0.001239256277406412</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P13">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q13">
-        <v>129.765194050633</v>
+        <v>167.3369863247574</v>
       </c>
       <c r="R13">
-        <v>1167.886746455697</v>
+        <v>1506.032876922817</v>
       </c>
       <c r="S13">
-        <v>0.0002904263545183194</v>
+        <v>0.0004298723614909184</v>
       </c>
       <c r="T13">
-        <v>0.0003237200881851364</v>
+        <v>0.0004455313337133568</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.698403</v>
+        <v>0.9006163333333334</v>
       </c>
       <c r="H14">
-        <v>2.095209</v>
+        <v>2.701849</v>
       </c>
       <c r="I14">
-        <v>0.0007632747813077693</v>
+        <v>0.001218229280939463</v>
       </c>
       <c r="J14">
-        <v>0.0008266971900855241</v>
+        <v>0.001239256277406412</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N14">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O14">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P14">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q14">
-        <v>81.950205972673</v>
+        <v>123.4490196631082</v>
       </c>
       <c r="R14">
-        <v>737.5518537540571</v>
+        <v>1111.041176967974</v>
       </c>
       <c r="S14">
-        <v>0.0001834120447073206</v>
+        <v>0.000317128464972647</v>
       </c>
       <c r="T14">
-        <v>0.0002044379318996163</v>
+        <v>0.0003286805122052907</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.698403</v>
+        <v>0.9006163333333334</v>
       </c>
       <c r="H15">
-        <v>2.095209</v>
+        <v>2.701849</v>
       </c>
       <c r="I15">
-        <v>0.0007632747813077693</v>
+        <v>0.001218229280939463</v>
       </c>
       <c r="J15">
-        <v>0.0008266971900855241</v>
+        <v>0.001239256277406412</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N15">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O15">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P15">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q15">
-        <v>28.954792457322</v>
+        <v>26.30946763326283</v>
       </c>
       <c r="R15">
-        <v>173.728754743932</v>
+        <v>157.856805799577</v>
       </c>
       <c r="S15">
-        <v>6.480346968797632E-05</v>
+        <v>6.758645072721925E-05</v>
       </c>
       <c r="T15">
-        <v>4.815491568568204E-05</v>
+        <v>4.669894947268157E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.698403</v>
+        <v>0.9006163333333334</v>
       </c>
       <c r="H16">
-        <v>2.095209</v>
+        <v>2.701849</v>
       </c>
       <c r="I16">
-        <v>0.0007632747813077693</v>
+        <v>0.001218229280939463</v>
       </c>
       <c r="J16">
-        <v>0.0008266971900855241</v>
+        <v>0.001239256277406412</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N16">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O16">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P16">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q16">
-        <v>97.61170328205699</v>
+        <v>154.5083067671075</v>
       </c>
       <c r="R16">
-        <v>878.505329538513</v>
+        <v>1390.574760903968</v>
       </c>
       <c r="S16">
-        <v>0.0002184639059027663</v>
+        <v>0.0003969167376484127</v>
       </c>
       <c r="T16">
-        <v>0.0002435080487148142</v>
+        <v>0.0004113752344633763</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>210.592407</v>
+        <v>37.6312075</v>
       </c>
       <c r="H17">
-        <v>421.184814</v>
+        <v>75.262415</v>
       </c>
       <c r="I17">
-        <v>0.230153469269178</v>
+        <v>0.05090229563562809</v>
       </c>
       <c r="J17">
-        <v>0.1661849974109953</v>
+        <v>0.03452058950796899</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N17">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O17">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P17">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q17">
-        <v>831.1397176992559</v>
+        <v>109.3881375402808</v>
       </c>
       <c r="R17">
-        <v>4986.838306195536</v>
+        <v>656.328825241685</v>
       </c>
       <c r="S17">
-        <v>0.001860166588373414</v>
+        <v>0.0002810074331820142</v>
       </c>
       <c r="T17">
-        <v>0.001382274215497208</v>
+        <v>0.000194162465737084</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>210.592407</v>
+        <v>37.6312075</v>
       </c>
       <c r="H18">
-        <v>421.184814</v>
+        <v>75.262415</v>
       </c>
       <c r="I18">
-        <v>0.230153469269178</v>
+        <v>0.05090229563562809</v>
       </c>
       <c r="J18">
-        <v>0.1661849974109953</v>
+        <v>0.03452058950796899</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P18">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q18">
-        <v>39128.64715636227</v>
+        <v>6991.981626077116</v>
       </c>
       <c r="R18">
-        <v>234771.8829381736</v>
+        <v>41951.8897564627</v>
       </c>
       <c r="S18">
-        <v>0.08757348558675751</v>
+        <v>0.01796171736515966</v>
       </c>
       <c r="T18">
-        <v>0.06507512383266788</v>
+        <v>0.01241067288861744</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>210.592407</v>
+        <v>37.6312075</v>
       </c>
       <c r="H19">
-        <v>421.184814</v>
+        <v>75.262415</v>
       </c>
       <c r="I19">
-        <v>0.230153469269178</v>
+        <v>0.05090229563562809</v>
       </c>
       <c r="J19">
-        <v>0.1661849974109953</v>
+        <v>0.03452058950796899</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N19">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O19">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P19">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q19">
-        <v>24710.79180635104</v>
+        <v>5158.173911214881</v>
       </c>
       <c r="R19">
-        <v>148264.7508381062</v>
+        <v>30949.04346728929</v>
       </c>
       <c r="S19">
-        <v>0.0553050086664952</v>
+        <v>0.01325084459147291</v>
       </c>
       <c r="T19">
-        <v>0.04109668883709669</v>
+        <v>0.009155688978920421</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>210.592407</v>
+        <v>37.6312075</v>
       </c>
       <c r="H20">
-        <v>421.184814</v>
+        <v>75.262415</v>
       </c>
       <c r="I20">
-        <v>0.230153469269178</v>
+        <v>0.05090229563562809</v>
       </c>
       <c r="J20">
-        <v>0.1661849974109953</v>
+        <v>0.03452058950796899</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N20">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O20">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P20">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q20">
-        <v>8730.860889447617</v>
+        <v>1099.310548874324</v>
       </c>
       <c r="R20">
-        <v>34923.44355779047</v>
+        <v>4397.242195497295</v>
       </c>
       <c r="S20">
-        <v>0.01954046397787878</v>
+        <v>0.002824021347793137</v>
       </c>
       <c r="T20">
-        <v>0.009680236771730012</v>
+        <v>0.00130084091127113</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>210.592407</v>
+        <v>37.6312075</v>
       </c>
       <c r="H21">
-        <v>421.184814</v>
+        <v>75.262415</v>
       </c>
       <c r="I21">
-        <v>0.230153469269178</v>
+        <v>0.05090229563562809</v>
       </c>
       <c r="J21">
-        <v>0.1661849974109953</v>
+        <v>0.03452058950796899</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N21">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O21">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P21">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q21">
-        <v>29433.26925219133</v>
+        <v>6455.950150167546</v>
       </c>
       <c r="R21">
-        <v>176599.615513148</v>
+        <v>38735.70090100528</v>
       </c>
       <c r="S21">
-        <v>0.06587434444967311</v>
+        <v>0.01658470489802037</v>
       </c>
       <c r="T21">
-        <v>0.04895067375400351</v>
+        <v>0.01145922426342291</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.255552</v>
+        <v>0.6264083333333333</v>
       </c>
       <c r="H22">
-        <v>0.766656</v>
+        <v>1.879225</v>
       </c>
       <c r="I22">
-        <v>0.0002792891738906664</v>
+        <v>0.0008473186031023426</v>
       </c>
       <c r="J22">
-        <v>0.000302496009210636</v>
+        <v>0.0008619435719424233</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N22">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O22">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P22">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q22">
-        <v>1.008580604416</v>
+        <v>1.820872766919444</v>
       </c>
       <c r="R22">
-        <v>9.077225439744</v>
+        <v>16.387854902275</v>
       </c>
       <c r="S22">
-        <v>2.257295496850477E-06</v>
+        <v>4.677644156750046E-06</v>
       </c>
       <c r="T22">
-        <v>2.516066072971538E-06</v>
+        <v>4.848036827874467E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.255552</v>
+        <v>0.6264083333333333</v>
       </c>
       <c r="H23">
-        <v>0.766656</v>
+        <v>1.879225</v>
       </c>
       <c r="I23">
-        <v>0.0002792891738906664</v>
+        <v>0.0008473186031023426</v>
       </c>
       <c r="J23">
-        <v>0.000302496009210636</v>
+        <v>0.0008619435719424233</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P23">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q23">
-        <v>47.482262919872</v>
+        <v>116.3883874066028</v>
       </c>
       <c r="R23">
-        <v>427.340366278848</v>
+        <v>1047.495486659425</v>
       </c>
       <c r="S23">
-        <v>0.0001062696405225429</v>
+        <v>0.0002989903908481825</v>
       </c>
       <c r="T23">
-        <v>0.0001184521200165062</v>
+        <v>0.0003098817219605843</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.255552</v>
+        <v>0.6264083333333333</v>
       </c>
       <c r="H24">
-        <v>0.766656</v>
+        <v>1.879225</v>
       </c>
       <c r="I24">
-        <v>0.0002792891738906664</v>
+        <v>0.0008473186031023426</v>
       </c>
       <c r="J24">
-        <v>0.000302496009210636</v>
+        <v>0.0008619435719424233</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N24">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O24">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P24">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q24">
-        <v>29.986324567232</v>
+        <v>85.86286057303887</v>
       </c>
       <c r="R24">
-        <v>269.876921105088</v>
+        <v>772.7657451573499</v>
       </c>
       <c r="S24">
-        <v>6.711213275006721E-05</v>
+        <v>0.0002205732961346924</v>
       </c>
       <c r="T24">
-        <v>7.480569581289131E-05</v>
+        <v>0.0002286081256017592</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.255552</v>
+        <v>0.6264083333333333</v>
       </c>
       <c r="H25">
-        <v>0.766656</v>
+        <v>1.879225</v>
       </c>
       <c r="I25">
-        <v>0.0002792891738906664</v>
+        <v>0.0008473186031023426</v>
       </c>
       <c r="J25">
-        <v>0.000302496009210636</v>
+        <v>0.0008619435719424233</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N25">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O25">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P25">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q25">
-        <v>10.594821502848</v>
+        <v>18.29910158307083</v>
       </c>
       <c r="R25">
-        <v>63.568929017088</v>
+        <v>109.794609498425</v>
       </c>
       <c r="S25">
-        <v>2.371217804863628E-05</v>
+        <v>4.700860331863792E-05</v>
       </c>
       <c r="T25">
-        <v>1.762032095123791E-05</v>
+        <v>3.248065799487685E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.255552</v>
+        <v>0.6264083333333333</v>
       </c>
       <c r="H26">
-        <v>0.766656</v>
+        <v>1.879225</v>
       </c>
       <c r="I26">
-        <v>0.0002792891738906664</v>
+        <v>0.0008473186031023426</v>
       </c>
       <c r="J26">
-        <v>0.000302496009210636</v>
+        <v>0.0008619435719424233</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N26">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O26">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P26">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q26">
-        <v>35.717008657088</v>
+        <v>107.4656180950222</v>
       </c>
       <c r="R26">
-        <v>321.453077913792</v>
+        <v>967.1905628551998</v>
       </c>
       <c r="S26">
-        <v>7.993792707256945E-05</v>
+        <v>0.0002760686686440797</v>
       </c>
       <c r="T26">
-        <v>8.910180635702911E-05</v>
+        <v>0.0002861250295573285</v>
       </c>
     </row>
   </sheetData>
